--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6393229896.694926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003665878040629094</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.309138743048914</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9524204903750789</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-5.309138743048914</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6102633314.259361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005889664612493157</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.960860818449103</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9175570097289647</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.960860818449103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4178224273.666507</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002528949125790503</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.93324543976008</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9880057212490904</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.93324543976008</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4196904461.398238</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004373547934309057</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.225870451793274</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7923075752946381</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-4.225870451793274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>4920392171.827511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002050450398507925</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.665289487378894</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.069152862775461</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.665289487378894</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7682394293.151986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008926550844329206</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.037666260046035</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6208673646.258663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002729587516470382</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.895108038660806</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9187022890586392</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.895108038660806</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>7036899219.810702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005221749770985092</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.84412321134209</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9332758511178416</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.84412321134209</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3331483676.003973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00406602521040701</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.02536773355317813</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.957423694470788</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.4238257609577481</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.957423694470788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4095633332.106317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001011221069068596</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.05024282858485</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7315859360601523</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-4.05024282858485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7762610802.208591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002004476530662736</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.078786457008448</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9720901847180328</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.078786457008448</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5517057368.74395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003691098672132472</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.073469167279397</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9883593697608503</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.073469167279397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6960791173.564814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003183003900911289</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9963082226324156</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5709135121.767452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003466505234122032</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.079388030148814</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6937666829.323298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003641405717138948</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.055522924508568</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8966918809512697</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-5.055522924508568</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4453354954.038932</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003433019794566386</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.905750144500788</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9198461424283996</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.905750144500788</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5234396106.152811</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009616011565372877</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.928262708337911</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9664857520131653</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.928262708337911</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3270318727.428566</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001799654562812174</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.982184874146467</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9719104166221154</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-6.982184874146467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4541289370.306624</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001326217424213864</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.913265970499141</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8618114615920718</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-6.913265970499141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7751368143.566626</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005660805793813508</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9110501381508491</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.152349944295785</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.054494690385607</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-5.152349944295785</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6298871159.581229</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004377933151615694</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.079873346323445</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8799229753869506</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.079873346323445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5575071956.020454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001891314259453238</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.921822780952117</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8978637754040143</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.921822780952117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6689926454.399054</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003012090010758111</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.086185862714253</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6787266023.859355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003587435406106485</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.165452671555372</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8499339007924981</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.165452671555372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3919137704.967546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001274725223162152</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8632805832238521</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.818161636155198</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9882369526861817</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.818161636155198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7803458685.483851</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003276907203485852</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.010572731602914</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9334630595617035</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-5.010572731602914</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5772855403.917921</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004775482140128971</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9432622358721765</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.131918305422297</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.058050131111393</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-4.131918305422297</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5268723480.737632</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001123665557275584</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1200758586872359</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.091746968868383</v>
-      </c>
-      <c r="M29" t="n">
-        <v>-0.1174142492246862</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.091746968868383</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8125333975.257375</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003573776090854229</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.856666405686686</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8908092838929137</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.856666405686686</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7763448055.140226</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003271057160724755</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.178407839971039</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9131528985411085</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.178407839971039</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4424675411.120525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00105010107073459</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.27360668586485</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9289462655563023</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.27360668586485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5333438673.091692</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003056657855594129</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.8055397708325903</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.070158369210675</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9858729767533403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-7.070158369210675</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7459648158.304428</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004610792708613661</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8797243734984608</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6657865399.455386</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002438960922630825</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.969997837458521</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9794544740161958</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-6.969997837458521</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5594009706.561579</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003319403444240019</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.576297610129494</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.8912015029402359</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.576297610129494</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6381562492.960857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003903105812578864</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.12330667731232</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4429682222.816252</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004681225218313315</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9789525692749294</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.023293728129692</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.092235407030313</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.023293728129692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4017520407.504573</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002333708002744318</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9663049412881468</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7039420392.143657</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003824524224215103</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.166386473875907</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.035806293129581</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.166386473875907</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4715272371.946206</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001042581034935695</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.997063935944725</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9653971612893989</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-6.997063935944725</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5531339763.577164</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005156348027937857</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.884304211138177</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9764074182944512</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.884304211138177</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5012644650.721446</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003113303629297866</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.09572352553789</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9729917202923148</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-7.09572352553789</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6699917835.996524</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001650121281459924</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.106676911695827</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9502098351672947</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-5.106676911695827</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4679358100.830606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001046719068033938</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.258887516714687</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.005935789273324</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-7.258887516714687</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8968355686.306364</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003901478348623256</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9487342949723615</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7443988585.28868</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003328730533886749</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.008893667494673</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5936848447.462091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003598711187461189</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.024101393945132</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9762284451980849</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.024101393945132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5404972637.0495</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004851858600884073</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.711810342717748</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7502711768236117</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.711810342717748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7341142439.877171</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003239537600945824</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.048962918584289</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.031737639912176</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-7.048962918584289</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4339559957.745342</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003777413395891329</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>7.043847038348493</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.019434254763718</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-7.043847038348493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7914816794.13126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002019005179867751</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.908704451525433</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.906991801752793</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-6.908704451525433</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5716582760.589746</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002531622244033123</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.029527575486608</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6207017907.189275</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005479109544388374</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8737018001396211</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.025134928359238</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9612977171708618</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.025134928359238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9338567991.771044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002684508770876538</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9907359104390555</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.977607355432729</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.159460756810568</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.977607355432729</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4350346565.605772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002931563045801433</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.011785748338908</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9621239990610136</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.011785748338908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6447633982.894519</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003095829112262197</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9465150304242694</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5184494149.951961</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002292496072117967</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8280611552796386</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.957005656740472</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9036548436815967</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.957005656740472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7421938364.229691</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003800086332430366</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.948847376660193</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8872610048984083</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.948847376660193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5582354585.526276</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004211427306595164</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8176661235504015</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.864595101622551</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9488753091010372</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.864595101622551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4488479202.10343</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005240269223694825</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734925</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.77697623611212</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9062174337327016</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.77697623611212</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6255952370.470876</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00335118054489341</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9888927473458355</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7525551470.633371</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004693964642471771</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.038679111687893</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4249432483.096184</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004114730194996813</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.935534710375947</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9377717918315883</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-6.935534710375947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6710818158.4115</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003933827636963134</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.112016876431539</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5784873190.930613</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002545509225656813</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9754141337014574</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.615989700861665</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.033012394557547</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.615989700861665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7365975442.954606</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004424895994675615</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.064155449877356</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9207988305122171</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.064155449877356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8542796224.408587</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002754799216050786</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.853277216592543</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.739923436219849</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.853277216592543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5448387682.527284</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001138713333127656</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.059395000394713</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9513158049078557</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.059395000394713</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5060977238.406811</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003621662382120059</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.79276940018286</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9287581466692151</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-7.79276940018286</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4104524766.008657</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003399135083587918</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.929181890506131</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8445570305597639</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-6.929181890506131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6091094771.078077</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002012186541065448</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.151046821749301</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5965634508.705465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001435991235789642</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.957456243871356</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9943708986760823</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-6.957456243871356</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5019095845.992043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00434612721653386</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9867638046237541</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5853203855.450784</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004005139788687604</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9136301431658758</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.188223702414986</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.003747849567478</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-4.188223702414986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5092651291.906658</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002185099112015336</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.075746971247668</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.4714045207910317</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-5.075746971247668</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7597041897.466203</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004349897731387862</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.05843095951474567</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.026130877828872</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-0.3499334157377742</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.026130877828872</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6444121236.505623</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003602037421559333</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.023182289752665</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9198461424283996</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.023182289752665</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7237244947.793138</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001927187432382039</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.02826951422479</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.8682932010552157</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.02826951422479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6578159938.436625</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002606007018460226</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.283743799238792</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9796328577364621</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-5.283743799238792</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6110306638.569481</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004891317329526369</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.902251628011841</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9964835893137066</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.902251628011841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5304773099.614357</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00359666401622611</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.05518642224177</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9610304676493526</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-7.05518642224177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8531694758.368915</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002886400293343549</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9824920797849976</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5540276929.251768</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003502360076970283</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.949331144785619</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.021495109838175</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-6.949331144785619</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3690076421.646859</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003242745647920876</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.927120368464154</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9278136313248345</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.927120368464154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7776239355.354668</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002244625326353675</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.250148437136526</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9924297928734286</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.250148437136526</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4809436242.192679</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001244011513706643</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.090195719815048</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9470686937486372</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-4.090195719815048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9270015718.458187</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.0045986910346275</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.919914348952156</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8385170827480919</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.919914348952156</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5230423788.966284</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005320723651491542</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.02914552895010634</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.21064025951445</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.5339776566095432</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.21064025951445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5237141519.79978</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002931264025618619</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.915966797181111</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9357132804464968</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.915966797181111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4958321640.900321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.002977096102957834</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.843351205940057</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8470434684864608</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.843351205940057</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5429048139.60009</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004183646708311119</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2914031707416249</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.178719533051699</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.48004815465662</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.178719533051699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6378514789.039973</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001786770730715017</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.003800081064828</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.92667961273212</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-5.003800081064828</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6569403781.384654</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001512364367214562</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.095823903074096</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6918478051.640541</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001887103198170216</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.9860358795858192</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.920526703802369</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.144075594658372</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.920526703802369</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9006516443.897144</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002146278732006362</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>7.026916859152171</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.004889935426821</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-7.026916859152171</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7671450954.361627</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.006012609627478368</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9148917736656894</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>7.117202467807356</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.12398674592186</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-7.117202467807356</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7751640642.982984</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004271760647107057</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.921807241738627</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.7843042234721959</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.921807241738627</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3033838593.381909</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004042939799027432</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.026458932072229</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4559217619.634454</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002586535106968511</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.036922254340625</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7387375250622713</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.036922254340625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5224709310.050727</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001363808825992485</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6663322734164422</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.389803240686649</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8299031019433334</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.389803240686649</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6393229896.694926</v>
+        <v>1643568092.342413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003665878040629094</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+        <v>0.08205820038736879</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02840763204177768</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821783993.242852</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6102633314.259361</v>
+        <v>2233383464.409426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005889664612493157</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+        <v>0.1703663283117976</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03407580939713225</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1116691807.939011</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3404836095.356012</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1529309826402732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03573787296673425</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4178224273.666507</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002528949125790503</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1702418019.203632</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4196904461.398238</v>
+        <v>3843903944.609871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004373547934309057</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07919136836688233</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05062924063390935</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1921951985.893419</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>4920392171.827511</v>
+        <v>2305688969.893173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002050450398507925</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>0.1231226125013016</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04938525762151546</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1152844481.033674</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7682394293.151986</v>
+        <v>2234880424.203673</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008926550844329206</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>0.09298106629491726</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03301639850583142</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1117440250.261462</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6208673646.258663</v>
+        <v>2899466480.692075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002729587516470382</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+        <v>0.1957718247933507</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0279519175581519</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1449733287.155165</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>7036899219.810702</v>
+        <v>2135330260.148516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005221749770985092</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+        <v>0.1213586924719323</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02975543052014818</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1067665137.522084</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3331483676.003973</v>
+        <v>3953297866.583783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00406602521040701</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2158520793543719</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04705053962088632</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1976648951.155151</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4095633332.106317</v>
+        <v>3873942033.866444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001011221069068596</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1314534664236829</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04211738878720973</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1936971020.390447</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7762610802.208591</v>
+        <v>3213579478.873075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002004476530662736</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>0.1259109524356567</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03727206084276335</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1606789776.686171</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5517057368.74395</v>
+        <v>4519607632.130894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003691098672132472</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.06500311296055972</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02995075816771594</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2259803844.162445</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6960791173.564814</v>
+        <v>3221369182.297374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003183003900911289</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>0.1694760284990926</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04021471493771201</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1610684609.121513</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5709135121.767452</v>
+        <v>1344020476.047726</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003466505234122032</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
+        <v>0.09652992207308551</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03336182470877679</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>672010287.6182556</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6937666829.323298</v>
+        <v>2865537581.949325</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003641405717138948</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
+        <v>0.09131102673725179</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03356428266431255</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1432768788.402648</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4453354954.038932</v>
+        <v>4176431786.423187</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003433019794566386</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>0.1599553472262614</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04082788972036349</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2088215918.663633</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5234396106.152811</v>
+        <v>2524437258.04412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009616011565372877</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1724350584940086</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02870795514757591</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1262218693.255948</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3270318727.428566</v>
+        <v>1337138172.130382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001799654562812174</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1419323922470734</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02295665823680399</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>668569196.7010146</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4541289370.306624</v>
+        <v>2002054826.151511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001326217424213864</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1612428327424723</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02604172245132518</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1001027438.694873</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2213781388.881186</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0810950146722305</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03005445738628778</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>440</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7751368143.566626</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.005660805793813508</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+      <c r="J21" t="n">
+        <v>1106890709.510231</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6298871159.581229</v>
+        <v>4036544936.340993</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004377933151615694</v>
-      </c>
-      <c r="G22" t="b">
+        <v>0.1031019896347257</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05634020474730214</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2018272467.12263</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5575071956.020454</v>
+        <v>1258209894.185647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001891314259453238</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>0.1532890129068751</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04851030071024803</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>629104973.3423104</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6689926454.399054</v>
+        <v>4057667756.150157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003012090010758111</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
+        <v>0.09454253440314361</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02525697427906475</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2028833841.684547</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6787266023.859355</v>
+        <v>1261489990.24615</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003587435406106485</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.103838586815191</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02890111477458446</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>630744998.3567529</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3919137704.967546</v>
+        <v>1182175189.597095</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001274725223162152</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1018150171384096</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03853413342858349</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>591087610.996065</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7803458685.483851</v>
+        <v>3771624250.187266</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003276907203485852</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
+        <v>0.1557279598961197</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01879424588948186</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1885812146.168803</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5772855403.917921</v>
+        <v>3506324966.160552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004775482140128971</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+        <v>0.1473186022287157</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03073747146046598</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1753162537.85864</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5268723480.737632</v>
+        <v>4750076319.054832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001123665557275584</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+        <v>0.1242813342846834</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0344877466907504</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2375038123.83707</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8125333975.257375</v>
+        <v>2141261483.035134</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003573776090854229</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
+        <v>0.116191593488946</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02599509850263991</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1070630794.381254</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7763448055.140226</v>
+        <v>1364687755.253617</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003271057160724755</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+        <v>0.08121618402827932</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05089718742611379</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>682343789.8223364</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4424675411.120525</v>
+        <v>1455451098.094052</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00105010107073459</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1040727980765017</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0294721392972517</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>727725607.7771943</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5333438673.091692</v>
+        <v>2349804270.976904</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003056657855594129</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
+        <v>0.1318597745342949</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05868464664261254</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1174902186.045332</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7459648158.304428</v>
+        <v>1434557975.930732</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004610792708613661</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
+        <v>0.08889923143732252</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02613040972875526</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>717278954.0455772</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6657865399.455386</v>
+        <v>939161389.2431427</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002438960922630825</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
+        <v>0.09315136759740458</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03681418167183257</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>469580726.1699986</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5594009706.561579</v>
+        <v>2446818751.862368</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003319403444240019</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
+        <v>0.1603231414471294</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02251090357941689</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1223409401.732603</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6381562492.960857</v>
+        <v>2669352701.750955</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003903105812578864</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
+        <v>0.1077928467680555</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02787013710881919</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1334676469.804261</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4429682222.816252</v>
+        <v>1673661795.638192</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004681225218313315</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08446262702710727</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03697207268741071</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>836830922.1427956</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4017520407.504573</v>
+        <v>2142629028.320281</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002333708002744318</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1887671365436528</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02828342515462896</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1071314486.678449</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7039420392.143657</v>
+        <v>1275509045.760705</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003824524224215103</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
+        <v>0.1432713241868772</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04932599632746176</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>637754544.8558536</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4715272371.946206</v>
+        <v>2134104930.981532</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001042581034935695</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1095007545302613</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03372891074187317</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1067052526.120749</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5531339763.577164</v>
+        <v>4210598613.109379</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005156348027937857</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.1180580830765405</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02985047977287891</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2105299349.857528</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5012644650.721446</v>
+        <v>2659635249.010964</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003113303629297866</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
+        <v>0.1445207440869014</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02070296423863567</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1329817656.703252</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6699917835.996524</v>
+        <v>1592897392.075157</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001650121281459924</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
+        <v>0.07623781080114059</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02814131984207386</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>796448720.7865736</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4679358100.830606</v>
+        <v>1669939323.737241</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001046719068033938</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1375784289698275</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03914986061874231</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>834969618.9059126</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8968355686.306364</v>
+        <v>4307816916.770893</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003901478348623256</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
+        <v>0.1373365212117567</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05430691107343191</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2153908445.135288</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7443988585.28868</v>
+        <v>5051537592.409171</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003328730533886749</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
+        <v>0.1515017177154122</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03996327861815998</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2525768854.48757</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5936848447.462091</v>
+        <v>3250893168.477838</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003598711187461189</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
+        <v>0.08580704673320554</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02556813649601963</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1625446661.755283</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5404972637.0495</v>
+        <v>1702385930.02659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004851858600884073</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1855893018023063</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02965921394693524</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>851192965.0356028</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7341142439.877171</v>
+        <v>3478805446.89379</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003239537600945824</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
+        <v>0.1365967547289237</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03301007382646064</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1739402748.716632</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4339559957.745342</v>
+        <v>1436234236.169589</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003777413395891329</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1545419576932169</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05325563058009176</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>718117130.9962081</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7914816794.13126</v>
+        <v>5087912963.970959</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002019005179867751</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
+        <v>0.127390346288308</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0531051998506491</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2543956473.92606</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5716582760.589746</v>
+        <v>3085712989.732201</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002531622244033123</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1546997497427109</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02352798892699146</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1542856520.924967</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6207017907.189275</v>
+        <v>4040833363.830225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005479109544388374</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
+        <v>0.1457738647388894</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03207901163410742</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2020416748.650972</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9338567991.771044</v>
+        <v>3749892867.784853</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002684508770876538</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
+        <v>0.2047038598998026</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0293555799118256</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1874946397.309981</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4350346565.605772</v>
+        <v>1838288911.528963</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002931563045801433</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1484772713224103</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0498497359911782</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>919144447.5761129</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6447633982.894519</v>
+        <v>3157310839.299986</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003095829112262197</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
+        <v>0.156761031836447</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0206735670191054</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1578655436.846896</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5184494149.951961</v>
+        <v>1376782718.293425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002292496072117967</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
+        <v>0.1551885156327536</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03450538888843777</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>688391401.0044031</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7421938364.229691</v>
+        <v>5086713758.330471</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003800086332430366</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
+        <v>0.1241517123049659</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03966473757857658</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2543356802.296078</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5582354585.526276</v>
+        <v>2961865355.364833</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004211427306595164</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1766397399840063</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02925537886738163</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1480932743.592854</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4488479202.10343</v>
+        <v>2843523308.321486</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005240269223694825</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
+        <v>0.1646906028771478</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02899436261659855</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1421761648.852467</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6255952370.470876</v>
+        <v>1872657408.08446</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00335118054489341</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
+        <v>0.1402603431315924</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03765136805515831</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>936328742.5715932</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7525551470.633371</v>
+        <v>3669500789.557408</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004693964642471771</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
+        <v>0.07136012024907373</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04324384218644925</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1834750471.216772</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4249432483.096184</v>
+        <v>3530579388.041017</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004114730194996813</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.14507062570168</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02222341252573919</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1765289696.36967</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4345782899.761848</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1224667412724016</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03230445246200781</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6710818158.4115</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.003933827636963134</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2172891447.442125</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5784873190.930613</v>
+        <v>5239685745.54942</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002545509225656813</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1286146018428998</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03715085344589267</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2619842912.379607</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7365975442.954606</v>
+        <v>3496688283.84723</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004424895994675615</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
+        <v>0.09437498734991791</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04932594958059312</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1748344117.502966</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8542796224.408587</v>
+        <v>4059645787.459783</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002754799216050786</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
+        <v>0.1085721401981603</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03374994045355038</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2029822892.733281</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5448387682.527284</v>
+        <v>1819189204.001512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001138713333127656</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1714334858408673</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04385678161543393</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>909594583.1775005</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5060977238.406811</v>
+        <v>2407956994.698828</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003621662382120059</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
+        <v>0.06551681878237246</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03972704408757207</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1203978435.331873</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4104524766.008657</v>
+        <v>3709963984.252216</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003399135083587918</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1475211211195274</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02116505000180863</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1854982001.205233</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6091094771.078077</v>
+        <v>2229919356.635712</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002012186541065448</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
+        <v>0.07081126140844676</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04577054024256232</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1114959586.998372</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3477829487.72189</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1084631028908127</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03411948127762916</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5965634508.705465</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.001435991235789642</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1738914695.577638</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5019095845.992043</v>
+        <v>2968546838.602676</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00434612721653386</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+        <v>0.1419096226915819</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0247919143633733</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1484273486.896905</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5853203855.450784</v>
+        <v>1709169386.840498</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004005139788687604</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
+        <v>0.1550419098512919</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03536250708002099</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>854584684.5310446</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5092651291.906658</v>
+        <v>4913600687.185754</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002185099112015336</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
+        <v>0.1050951089882073</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02855245037624647</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2456800366.150419</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7597041897.466203</v>
+        <v>1984886523.952941</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004349897731387862</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1699721277077588</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02288265063083272</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>992443320.7669817</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6444121236.505623</v>
+        <v>3075686707.550963</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003602037421559333</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
+        <v>0.132080179318192</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0448575423468403</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1537843385.109905</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7237244947.793138</v>
+        <v>1816651686.896692</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001927187432382039</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1153191973056495</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03392695538023983</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>908325932.6390373</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6578159938.436625</v>
+        <v>4207273853.860695</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002606007018460226</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
+        <v>0.08275472178383254</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03858635462402324</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2103636936.274958</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6110306638.569481</v>
+        <v>5072748741.615107</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004891317329526369</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
+        <v>0.1231940891119489</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02696761568524482</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2536374373.491333</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5304773099.614357</v>
+        <v>5058755837.061707</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00359666401622611</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
+        <v>0.1551647556572955</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02104398845002763</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2529377898.807643</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8531694758.368915</v>
+        <v>1924848090.790604</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002886400293343549</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1357441619350948</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03866322052432565</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>962424020.755384</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5540276929.251768</v>
+        <v>1755841756.77053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003502360076970283</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.07776034660194289</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04046368782985144</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>877920918.7490498</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3690076421.646859</v>
+        <v>2304387431.641578</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003242745647920876</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.176323522298448</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04671015090163332</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1152193698.652502</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7776239355.354668</v>
+        <v>2120236208.096059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002244625326353675</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.157599481757665</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0189746226962048</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>2</v>
+      <c r="J86" t="n">
+        <v>1060118147.975517</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4809436242.192679</v>
+        <v>1442630379.123023</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001244011513706643</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1470692850975017</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03024052283676985</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>721315306.8681085</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9270015718.458187</v>
+        <v>2451783720.116865</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0045986910346275</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
+        <v>0.1528848120183504</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03879343855802925</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1225891835.816041</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5230423788.966284</v>
+        <v>3386802013.461236</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005320723651491542</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1082947088878375</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03770239770522228</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1693401015.990686</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5237141519.79978</v>
+        <v>1712358248.034825</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002931264025618619</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.1102040004271829</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04907640865182109</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>856179141.1693345</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4958321640.900321</v>
+        <v>1622208976.947623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.002977096102957834</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
+        <v>0.1705525002046106</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05109384161495712</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>811104510.6816311</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5429048139.60009</v>
+        <v>2218968124.803067</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004183646708311119</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09180739855574804</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04424796593692181</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1109484024.73737</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6378514789.039973</v>
+        <v>3792691386.012051</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001786770730715017</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
+        <v>0.1161361677412135</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03370264384347005</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1896345706.602521</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6569403781.384654</v>
+        <v>2259619725.625477</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001512364367214562</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
+        <v>0.1519382424899763</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03989778421511812</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1129809894.575011</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6918478051.640541</v>
+        <v>2930305581.116791</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001887103198170216</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
+        <v>0.08943043838632368</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03605217849686681</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1465152794.894935</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9006516443.897144</v>
+        <v>2020007234.232963</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002146278732006362</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
+        <v>0.1318270870244752</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03577894914241387</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1010003601.538955</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7671450954.361627</v>
+        <v>4338742121.801019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006012609627478368</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
+        <v>0.1381571540525718</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0273412124548598</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2169371144.055154</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7751640642.982984</v>
+        <v>3701799538.205378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004271760647107057</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
+        <v>0.09064720601932409</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02158905335094697</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1850899800.959865</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3033838593.381909</v>
+        <v>3002999040.098234</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004042939799027432</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1400802443499444</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02662001083935056</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1501499505.813198</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2947618578.380107</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1649028688464937</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01762941427726089</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>422</v>
-      </c>
-      <c r="E100" t="n">
-        <v>4559217619.634454</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.002586535106968511</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1473809275.472707</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5224709310.050727</v>
+        <v>3543979813.422218</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001363808825992485</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
+        <v>0.1936856205226461</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04012016498227103</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1771990067.238405</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1643568092.342413</v>
+        <v>2263557886.091268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08205820038736879</v>
+        <v>0.1005133986092498</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02840763204177768</v>
+        <v>0.04538052269461944</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>821783993.242852</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2233383464.409426</v>
+        <v>2070334951.86439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703663283117976</v>
+        <v>0.1681692383970304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03407580939713225</v>
+        <v>0.04896590809823003</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1116691807.939011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3404836095.356012</v>
+        <v>4471775830.377178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1529309826402732</v>
+        <v>0.152173359473366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03573787296673425</v>
+        <v>0.02820870791388988</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1702418019.203632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3843903944.609871</v>
+        <v>3640345631.825234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07919136836688233</v>
+        <v>0.08804643198799808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05062924063390935</v>
+        <v>0.04019620302441101</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1921951985.893419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2305688969.893173</v>
+        <v>1983497673.887401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1231226125013016</v>
+        <v>0.1101798170132539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04938525762151546</v>
+        <v>0.03565109672100153</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1152844481.033674</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2234880424.203673</v>
+        <v>3044233781.282644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09298106629491726</v>
+        <v>0.06854686616588025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03301639850583142</v>
+        <v>0.0381402534244215</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1117440250.261462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2899466480.692075</v>
+        <v>2868785061.856764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1957718247933507</v>
+        <v>0.1693807939806352</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0279519175581519</v>
+        <v>0.03031286852449758</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1449733287.155165</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2135330260.148516</v>
+        <v>1884178571.658289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1213586924719323</v>
+        <v>0.1876268501172217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02975543052014818</v>
+        <v>0.02508398424061777</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1067665137.522084</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3953297866.583783</v>
+        <v>4647670502.987378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2158520793543719</v>
+        <v>0.1310241537195734</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04705053962088632</v>
+        <v>0.04763450887553699</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1976648951.155151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3873942033.866444</v>
+        <v>3510666917.029768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1314534664236829</v>
+        <v>0.155232491259664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04211738878720973</v>
+        <v>0.0359772246551679</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1936971020.390447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3213579478.873075</v>
+        <v>3061814374.82965</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1259109524356567</v>
+        <v>0.1914847152991801</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03727206084276335</v>
+        <v>0.05287363727639464</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1606789776.686171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4519607632.130894</v>
+        <v>4208577125.730865</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06500311296055972</v>
+        <v>0.09788248358720332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02995075816771594</v>
+        <v>0.02896109880826248</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2259803844.162445</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3221369182.297374</v>
+        <v>2990392554.568734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1694760284990926</v>
+        <v>0.1281474086900408</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04021471493771201</v>
+        <v>0.03766874476522125</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1610684609.121513</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1344020476.047726</v>
+        <v>1432714948.816655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09652992207308551</v>
+        <v>0.06754649694838587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03336182470877679</v>
+        <v>0.04144369700619264</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>672010287.6182556</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2865537581.949325</v>
+        <v>1763042668.751032</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09131102673725179</v>
+        <v>0.0897607392782989</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03356428266431255</v>
+        <v>0.04695157889686131</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1432768788.402648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4176431786.423187</v>
+        <v>3521766119.360878</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1599553472262614</v>
+        <v>0.1288239971041128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04082788972036349</v>
+        <v>0.04094213309657389</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2088215918.663633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2524437258.04412</v>
+        <v>3652739077.558754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1724350584940086</v>
+        <v>0.1360939157788256</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02870795514757591</v>
+        <v>0.03148011727603681</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1262218693.255948</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1337138172.130382</v>
+        <v>925639469.5125431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1419323922470734</v>
+        <v>0.1814873325557902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02295665823680399</v>
+        <v>0.0174781846763705</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>668569196.7010146</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2002054826.151511</v>
+        <v>2674267926.92557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1612428327424723</v>
+        <v>0.09929996865272585</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02604172245132518</v>
+        <v>0.02125804013331681</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1001027438.694873</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213781388.881186</v>
+        <v>1701762669.637942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0810950146722305</v>
+        <v>0.09043124803479154</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03005445738628778</v>
+        <v>0.0324723782617698</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1106890709.510231</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4036544936.340993</v>
+        <v>2990531912.091397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031019896347257</v>
+        <v>0.1365071241724265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05634020474730214</v>
+        <v>0.04304809494016378</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2018272467.12263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1258209894.185647</v>
+        <v>1123431698.320685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1532890129068751</v>
+        <v>0.1277619171003091</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04851030071024803</v>
+        <v>0.05344236433966745</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>629104973.3423104</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4057667756.150157</v>
+        <v>3335816037.39933</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09454253440314361</v>
+        <v>0.1322623480315574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02525697427906475</v>
+        <v>0.02344671949537359</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2028833841.684547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1261489990.24615</v>
+        <v>1319254548.96871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.103838586815191</v>
+        <v>0.0746826278841886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02890111477458446</v>
+        <v>0.0213213322854142</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>630744998.3567529</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1182175189.597095</v>
+        <v>1137554248.974056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1018150171384096</v>
+        <v>0.07704366887107586</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03853413342858349</v>
+        <v>0.02577260508767116</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>591087610.996065</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3771624250.187266</v>
+        <v>3242234881.19563</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1557279598961197</v>
+        <v>0.1307725132307637</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01879424588948186</v>
+        <v>0.02025945752425377</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1885812146.168803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3506324966.160552</v>
+        <v>3847008877.427313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1473186022287157</v>
+        <v>0.1197533092562949</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03073747146046598</v>
+        <v>0.03995413560178486</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1753162537.85864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4750076319.054832</v>
+        <v>4952126572.269005</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1242813342846834</v>
+        <v>0.1147935300442468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0344877466907504</v>
+        <v>0.03470782216961719</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2375038123.83707</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2141261483.035134</v>
+        <v>2207253998.969494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.116191593488946</v>
+        <v>0.12243750982144</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02599509850263991</v>
+        <v>0.03838382121743644</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1070630794.381254</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1364687755.253617</v>
+        <v>1142539434.776771</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08121618402827932</v>
+        <v>0.09204245914795853</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05089718742611379</v>
+        <v>0.04932505641906448</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>682343789.8223364</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1455451098.094052</v>
+        <v>1784379846.710891</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1040727980765017</v>
+        <v>0.1199689889366597</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0294721392972517</v>
+        <v>0.03707805460343341</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>727725607.7771943</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2349804270.976904</v>
+        <v>2317520199.837399</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1318597745342949</v>
+        <v>0.171592674627775</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05868464664261254</v>
+        <v>0.03960209853949502</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1174902186.045332</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1434557975.930732</v>
+        <v>1059006817.281775</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08889923143732252</v>
+        <v>0.1083063672694254</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02613040972875526</v>
+        <v>0.02329850444746253</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>717278954.0455772</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>939161389.2431427</v>
+        <v>1205535721.084876</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09315136759740458</v>
+        <v>0.09162595957733007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03681418167183257</v>
+        <v>0.03219268583997666</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>469580726.1699986</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2446818751.862368</v>
+        <v>2205328687.180912</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1603231414471294</v>
+        <v>0.1096662282155511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02251090357941689</v>
+        <v>0.02228366426215499</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1223409401.732603</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2669352701.750955</v>
+        <v>2648669066.057743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1077928467680555</v>
+        <v>0.08062969818108573</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02787013710881919</v>
+        <v>0.02957457702752546</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1334676469.804261</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1673661795.638192</v>
+        <v>1898947223.596846</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08446262702710727</v>
+        <v>0.08837760231517655</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03697207268741071</v>
+        <v>0.025483508581141</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>836830922.1427956</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2142629028.320281</v>
+        <v>1519066306.221684</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1887671365436528</v>
+        <v>0.1331241160902155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02828342515462896</v>
+        <v>0.02064277254468207</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1071314486.678449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1275509045.760705</v>
+        <v>1810348806.049236</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1432713241868772</v>
+        <v>0.141682731129617</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04932599632746176</v>
+        <v>0.04316181438293386</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>637754544.8558536</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2134104930.981532</v>
+        <v>2331609550.818779</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1095007545302613</v>
+        <v>0.1435127670981747</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03372891074187317</v>
+        <v>0.03750215202584633</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1067052526.120749</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4210598613.109379</v>
+        <v>2941887865.581448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1180580830765405</v>
+        <v>0.1019133562714269</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02985047977287891</v>
+        <v>0.03213624973194251</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2105299349.857528</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2659635249.010964</v>
+        <v>1877795267.876247</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1445207440869014</v>
+        <v>0.2009725514162768</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02070296423863567</v>
+        <v>0.02168636718078124</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1329817656.703252</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1592897392.075157</v>
+        <v>1444063825.616456</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07623781080114059</v>
+        <v>0.08363507520029721</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02814131984207386</v>
+        <v>0.03162017833682147</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>796448720.7865736</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1669939323.737241</v>
+        <v>2046100126.863736</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1375784289698275</v>
+        <v>0.1222326872190266</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03914986061874231</v>
+        <v>0.04159058543248412</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>834969618.9059126</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4307816916.770893</v>
+        <v>4932333465.276049</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1373365212117567</v>
+        <v>0.1213014842453792</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05430691107343191</v>
+        <v>0.04197646956614498</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2153908445.135288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5051537592.409171</v>
+        <v>4424954399.456222</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1515017177154122</v>
+        <v>0.1789383169185472</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03996327861815998</v>
+        <v>0.04029522554927658</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2525768854.48757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3250893168.477838</v>
+        <v>4149054794.691628</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08580704673320554</v>
+        <v>0.07649866231931912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02556813649601963</v>
+        <v>0.0276820130453336</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1625446661.755283</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1702385930.02659</v>
+        <v>1724275896.613622</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1855893018023063</v>
+        <v>0.1885883096282119</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02965921394693524</v>
+        <v>0.03887831671271912</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>851192965.0356028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3478805446.89379</v>
+        <v>3530248205.990299</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1365967547289237</v>
+        <v>0.1468296913942044</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03301007382646064</v>
+        <v>0.04150696674500943</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1739402748.716632</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1436234236.169589</v>
+        <v>958752416.0157118</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1545419576932169</v>
+        <v>0.1566873581260578</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05325563058009176</v>
+        <v>0.03965489146507968</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>718117130.9962081</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5087912963.970959</v>
+        <v>4634855357.505403</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127390346288308</v>
+        <v>0.1093713827879586</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0531051998506491</v>
+        <v>0.04679145836703338</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2543956473.92606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3085712989.732201</v>
+        <v>3215109719.371679</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1546997497427109</v>
+        <v>0.1437421279557583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02352798892699146</v>
+        <v>0.02970233065612007</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1542856520.924967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4040833363.830225</v>
+        <v>4678213946.826921</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1457738647388894</v>
+        <v>0.1324391358680664</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03207901163410742</v>
+        <v>0.04483086805995723</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2020416748.650972</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3749892867.784853</v>
+        <v>4711742863.38129</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2047038598998026</v>
+        <v>0.1755858612925636</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0293555799118256</v>
+        <v>0.02536164065958394</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1874946397.309981</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1838288911.528963</v>
+        <v>1698839362.496048</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484772713224103</v>
+        <v>0.1408395539513342</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0498497359911782</v>
+        <v>0.04797266270675635</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>919144447.5761129</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3157310839.299986</v>
+        <v>3429813654.978303</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156761031836447</v>
+        <v>0.1181967405494066</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0206735670191054</v>
+        <v>0.02232648191025787</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1578655436.846896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1376782718.293425</v>
+        <v>1449416491.968337</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1551885156327536</v>
+        <v>0.1237539461358834</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03450538888843777</v>
+        <v>0.02664435779303634</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>688391401.0044031</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5086713758.330471</v>
+        <v>3549232194.20337</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1241517123049659</v>
+        <v>0.08058746866256303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03966473757857658</v>
+        <v>0.04452278343149116</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2543356802.296078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2961865355.364833</v>
+        <v>2454181040.39842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1766397399840063</v>
+        <v>0.1369079186372116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02925537886738163</v>
+        <v>0.03060161827949395</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1480932743.592854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2843523308.321486</v>
+        <v>2480571814.701283</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1646906028771478</v>
+        <v>0.1714608655138299</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02899436261659855</v>
+        <v>0.03107175219121329</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1421761648.852467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1872657408.08446</v>
+        <v>1368791445.987285</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1402603431315924</v>
+        <v>0.1243339943635337</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03765136805515831</v>
+        <v>0.04711547120525979</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>936328742.5715932</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3669500789.557408</v>
+        <v>4203693852.049346</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07136012024907373</v>
+        <v>0.09407313702516323</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04324384218644925</v>
+        <v>0.03484325357671216</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1834750471.216772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3530579388.041017</v>
+        <v>5067920728.55182</v>
       </c>
       <c r="F64" t="n">
-        <v>0.14507062570168</v>
+        <v>0.1904755789821622</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02222341252573919</v>
+        <v>0.02579272578654477</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1765289696.36967</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4345782899.761848</v>
+        <v>5935086388.619443</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1224667412724016</v>
+        <v>0.1493270456926318</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03230445246200781</v>
+        <v>0.02907770641745311</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2172891447.442125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5239685745.54942</v>
+        <v>4218896003.566612</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286146018428998</v>
+        <v>0.1270842068313497</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03715085344589267</v>
+        <v>0.0387065926348712</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2619842912.379607</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3496688283.84723</v>
+        <v>3422936444.388278</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09437498734991791</v>
+        <v>0.07492401072663292</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04932594958059312</v>
+        <v>0.04837900944689539</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1748344117.502966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4059645787.459783</v>
+        <v>6057460774.959476</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1085721401981603</v>
+        <v>0.1221481617988853</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03374994045355038</v>
+        <v>0.04237321427388215</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2029822892.733281</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1819189204.001512</v>
+        <v>1700983740.062735</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1714334858408673</v>
+        <v>0.1606541483411522</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04385678161543393</v>
+        <v>0.0519127582927227</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>909594583.1775005</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2407956994.698828</v>
+        <v>2993973879.223871</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06551681878237246</v>
+        <v>0.07195245290935692</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03972704408757207</v>
+        <v>0.0363283124344544</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1203978435.331873</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3709963984.252216</v>
+        <v>4775552457.438628</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1475211211195274</v>
+        <v>0.1272125293713404</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02116505000180863</v>
+        <v>0.02800367429256373</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1854982001.205233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2229919356.635712</v>
+        <v>2223002929.822787</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07081126140844676</v>
+        <v>0.1038895347141997</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04577054024256232</v>
+        <v>0.04559482133013404</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1114959586.998372</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3477829487.72189</v>
+        <v>2877287088.225631</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1084631028908127</v>
+        <v>0.07859574878796309</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03411948127762916</v>
+        <v>0.04188841382249774</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1738914695.577638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2968546838.602676</v>
+        <v>3823773656.384471</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1419096226915819</v>
+        <v>0.1248437930265942</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0247919143633733</v>
+        <v>0.02610559216660453</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1484273486.896905</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1709169386.840498</v>
+        <v>1567838379.502806</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1550419098512919</v>
+        <v>0.1512152807132036</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03536250708002099</v>
+        <v>0.03799583746377506</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>854584684.5310446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4913600687.185754</v>
+        <v>4304457127.164412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1050951089882073</v>
+        <v>0.1220100797468209</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02855245037624647</v>
+        <v>0.02872657254981213</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2456800366.150419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1984886523.952941</v>
+        <v>1905854801.528043</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1699721277077588</v>
+        <v>0.1589495375949424</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02288265063083272</v>
+        <v>0.021295534604769</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>992443320.7669817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3075686707.550963</v>
+        <v>4125500411.435718</v>
       </c>
       <c r="F78" t="n">
-        <v>0.132080179318192</v>
+        <v>0.09668778810316285</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0448575423468403</v>
+        <v>0.03887770438147223</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1537843385.109905</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1816651686.896692</v>
+        <v>1343147704.827574</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1153191973056495</v>
+        <v>0.1490559303592006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03392695538023983</v>
+        <v>0.02749238965655055</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>908325932.6390373</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4207273853.860695</v>
+        <v>3403391606.771775</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08275472178383254</v>
+        <v>0.09703259122061091</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03858635462402324</v>
+        <v>0.02481528989530899</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2103636936.274958</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5072748741.615107</v>
+        <v>3737622337.081358</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1231940891119489</v>
+        <v>0.1188895447588759</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02696761568524482</v>
+        <v>0.0230670202854464</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2536374373.491333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5058755837.061707</v>
+        <v>5165957990.664377</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1551647556572955</v>
+        <v>0.1905973373419247</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02104398845002763</v>
+        <v>0.02488588270669005</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2529377898.807643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1924848090.790604</v>
+        <v>1800543681.584501</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1357441619350948</v>
+        <v>0.1396390550269062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03866322052432565</v>
+        <v>0.03990609145803514</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>962424020.755384</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1755841756.77053</v>
+        <v>2411197954.439774</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07776034660194289</v>
+        <v>0.1109668943175325</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04046368782985144</v>
+        <v>0.05183785210107813</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>877920918.7490498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2304387431.641578</v>
+        <v>2403980776.874205</v>
       </c>
       <c r="F85" t="n">
-        <v>0.176323522298448</v>
+        <v>0.11810589922661</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04671015090163332</v>
+        <v>0.05077096753908751</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1152193698.652502</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2120236208.096059</v>
+        <v>2460633099.347268</v>
       </c>
       <c r="F86" t="n">
-        <v>0.157599481757665</v>
+        <v>0.1417710237475732</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0189746226962048</v>
+        <v>0.01716913252640304</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1060118147.975517</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1442630379.123023</v>
+        <v>1212027547.581888</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1470692850975017</v>
+        <v>0.1321821317274295</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03024052283676985</v>
+        <v>0.03706606155822321</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>721315306.8681085</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2451783720.116865</v>
+        <v>2249228342.985466</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1528848120183504</v>
+        <v>0.1509477339770227</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03879343855802925</v>
+        <v>0.02773966982518898</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1225891835.816041</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3386802013.461236</v>
+        <v>2582596448.00208</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1082947088878375</v>
+        <v>0.09929941618518585</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03770239770522228</v>
+        <v>0.02756804756038814</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1693401015.990686</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1712358248.034825</v>
+        <v>1537457291.77285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1102040004271829</v>
+        <v>0.1040147878574094</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04907640865182109</v>
+        <v>0.04467458755169841</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>856179141.1693345</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1622208976.947623</v>
+        <v>1443285230.938537</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1705525002046106</v>
+        <v>0.1668427036424466</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05109384161495712</v>
+        <v>0.05845678017248656</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>811104510.6816311</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2218968124.803067</v>
+        <v>2319312235.194724</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09180739855574804</v>
+        <v>0.08503314788768689</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04424796593692181</v>
+        <v>0.03884481051628972</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1109484024.73737</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3792691386.012051</v>
+        <v>3669621311.147555</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1161361677412135</v>
+        <v>0.1053860722610277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03370264384347005</v>
+        <v>0.04467184528475412</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1896345706.602521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2259619725.625477</v>
+        <v>2220303038.821102</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1519382424899763</v>
+        <v>0.1238476832911244</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03989778421511812</v>
+        <v>0.03798324621402786</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1129809894.575011</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2930305581.116791</v>
+        <v>2226793603.210316</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08943043838632368</v>
+        <v>0.08739614226266738</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03605217849686681</v>
+        <v>0.04734610431921242</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1465152794.894935</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2020007234.232963</v>
+        <v>1461780242.664008</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1318270870244752</v>
+        <v>0.1373101407234801</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03577894914241387</v>
+        <v>0.03301080732401959</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1010003601.538955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4338742121.801019</v>
+        <v>4099448059.287648</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1381571540525718</v>
+        <v>0.1071208321803427</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0273412124548598</v>
+        <v>0.01990268133165121</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2169371144.055154</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3701799538.205378</v>
+        <v>3569585754.80942</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09064720601932409</v>
+        <v>0.1035596390601951</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02158905335094697</v>
+        <v>0.03262806358094807</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1850899800.959865</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3002999040.098234</v>
+        <v>3409005415.8425</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1400802443499444</v>
+        <v>0.1189981434019981</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02662001083935056</v>
+        <v>0.02947805969872599</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1501499505.813198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2947618578.380107</v>
+        <v>3510871531.9865</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1649028688464937</v>
+        <v>0.1476626530321406</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01762941427726089</v>
+        <v>0.01769788283406679</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1473809275.472707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3543979813.422218</v>
+        <v>3204084776.846592</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1936856205226461</v>
+        <v>0.1584285314830076</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04012016498227103</v>
+        <v>0.03854946723268161</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1771990067.238405</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2263557886.091268</v>
+        <v>1829318224.583186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1005133986092498</v>
+        <v>0.08655690391749689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04538052269461944</v>
+        <v>0.03022346613639245</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2070334951.86439</v>
+        <v>2599338493.558795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1681692383970304</v>
+        <v>0.1184151971853593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04896590809823003</v>
+        <v>0.03217949403376556</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4471775830.377178</v>
+        <v>4222444780.157374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152173359473366</v>
+        <v>0.1421513935898452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02820870791388988</v>
+        <v>0.03483489216512718</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3640345631.825234</v>
+        <v>3745126850.389365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08804643198799808</v>
+        <v>0.1062936182748665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04019620302441101</v>
+        <v>0.04653150189313948</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1983497673.887401</v>
+        <v>1910391612.790668</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101798170132539</v>
+        <v>0.1083948845478392</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03565109672100153</v>
+        <v>0.04074289253544823</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3044233781.282644</v>
+        <v>2226795117.949476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06854686616588025</v>
+        <v>0.09605104410116745</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0381402534244215</v>
+        <v>0.03340722174159398</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2868785061.856764</v>
+        <v>2940560300.752039</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1693807939806352</v>
+        <v>0.1407632263271415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03031286852449758</v>
+        <v>0.0333699650156597</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1884178571.658289</v>
+        <v>1744765720.465095</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1876268501172217</v>
+        <v>0.1201045172566904</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02508398424061777</v>
+        <v>0.03255757082397745</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4647670502.987378</v>
+        <v>5435702527.427558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310241537195734</v>
+        <v>0.1974287190480395</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04763450887553699</v>
+        <v>0.0373158064911153</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3510666917.029768</v>
+        <v>2719346257.409906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.155232491259664</v>
+        <v>0.1868537331827449</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0359772246551679</v>
+        <v>0.04881580416012719</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3061814374.82965</v>
+        <v>2229958665.835317</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1914847152991801</v>
+        <v>0.1223158955148227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05287363727639464</v>
+        <v>0.04371717823061746</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4208577125.730865</v>
+        <v>3831940917.452124</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09788248358720332</v>
+        <v>0.09776902652440948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02896109880826248</v>
+        <v>0.02711641922028624</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2990392554.568734</v>
+        <v>3105438372.955523</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1281474086900408</v>
+        <v>0.1853000752365198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03766874476522125</v>
+        <v>0.03255228319013251</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1432714948.816655</v>
+        <v>1270024771.396976</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06754649694838587</v>
+        <v>0.06641416475928739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04144369700619264</v>
+        <v>0.03963943290254088</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1763042668.751032</v>
+        <v>2180068716.094699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0897607392782989</v>
+        <v>0.07432592054540398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04695157889686131</v>
+        <v>0.03668865138668708</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3521766119.360878</v>
+        <v>3707107955.012259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1288239971041128</v>
+        <v>0.1179299959970406</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04094213309657389</v>
+        <v>0.04169860504332961</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3652739077.558754</v>
+        <v>4020355707.493726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1360939157788256</v>
+        <v>0.1826789487550802</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03148011727603681</v>
+        <v>0.03216234374873778</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>925639469.5125431</v>
+        <v>1130320699.708984</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1814873325557902</v>
+        <v>0.1251214085700706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0174781846763705</v>
+        <v>0.02042715211248981</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2674267926.92557</v>
+        <v>1897960896.341043</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09929996865272585</v>
+        <v>0.1504225105637393</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02125804013331681</v>
+        <v>0.02733728820082945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1701762669.637942</v>
+        <v>2735530809.38982</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09043124803479154</v>
+        <v>0.07557580205117867</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0324723782617698</v>
+        <v>0.04163590190936898</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2990531912.091397</v>
+        <v>2936315630.947586</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1365071241724265</v>
+        <v>0.09438340679375305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04304809494016378</v>
+        <v>0.05601119054789177</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1123431698.320685</v>
+        <v>1159721206.019533</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1277619171003091</v>
+        <v>0.1275206464369967</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05344236433966745</v>
+        <v>0.04243340070214804</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3335816037.39933</v>
+        <v>2932530522.562705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1322623480315574</v>
+        <v>0.1213510396066278</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02344671949537359</v>
+        <v>0.03214280062174679</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319254548.96871</v>
+        <v>961642435.382321</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0746826278841886</v>
+        <v>0.08682029360876886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0213213322854142</v>
+        <v>0.02934524931690859</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1137554248.974056</v>
+        <v>1327743340.440227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07704366887107586</v>
+        <v>0.1015442814381097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02577260508767116</v>
+        <v>0.0329423892268518</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3242234881.19563</v>
+        <v>4713228417.827894</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1307725132307637</v>
+        <v>0.1121123381617791</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02025945752425377</v>
+        <v>0.02444504253483332</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3847008877.427313</v>
+        <v>2491706483.633133</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1197533092562949</v>
+        <v>0.1035309051508388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03995413560178486</v>
+        <v>0.04644864533936769</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4952126572.269005</v>
+        <v>4128745539.675782</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1147935300442468</v>
+        <v>0.1338707383921404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03470782216961719</v>
+        <v>0.03286219799471627</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2207253998.969494</v>
+        <v>1628221374.158365</v>
       </c>
       <c r="F30" t="n">
-        <v>0.12243750982144</v>
+        <v>0.09209391650595268</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03838382121743644</v>
+        <v>0.02428867128916906</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1142539434.776771</v>
+        <v>1083107530.386868</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09204245914795853</v>
+        <v>0.07595540183106031</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04932505641906448</v>
+        <v>0.04689264622637626</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1784379846.710891</v>
+        <v>1410646432.269161</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1199689889366597</v>
+        <v>0.07839393247242078</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03707805460343341</v>
+        <v>0.03061409649865389</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2317520199.837399</v>
+        <v>2133498436.750866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.171592674627775</v>
+        <v>0.1714828590042264</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03960209853949502</v>
+        <v>0.0410786193605364</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1059006817.281775</v>
+        <v>1477346919.26399</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1083063672694254</v>
+        <v>0.09362624113781785</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02329850444746253</v>
+        <v>0.02606190301502528</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1205535721.084876</v>
+        <v>867377807.1029801</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09162595957733007</v>
+        <v>0.09597132969289714</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03219268583997666</v>
+        <v>0.03531167632490288</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2205328687.180912</v>
+        <v>2129148245.581695</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1096662282155511</v>
+        <v>0.1278738315179657</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02228366426215499</v>
+        <v>0.02812038736118534</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2648669066.057743</v>
+        <v>1911376873.48544</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08062969818108573</v>
+        <v>0.07314285744301965</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02957457702752546</v>
+        <v>0.04002807598225593</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1898947223.596846</v>
+        <v>1411286974.840974</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08837760231517655</v>
+        <v>0.09514487816291822</v>
       </c>
       <c r="G38" t="n">
-        <v>0.025483508581141</v>
+        <v>0.02984858970875175</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1519066306.221684</v>
+        <v>1597595204.576465</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1331241160902155</v>
+        <v>0.1189682536925311</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02064277254468207</v>
+        <v>0.02220868327532772</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1810348806.049236</v>
+        <v>1331544685.963968</v>
       </c>
       <c r="F40" t="n">
-        <v>0.141682731129617</v>
+        <v>0.09949323702524594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04316181438293386</v>
+        <v>0.04145751049623762</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2331609550.818779</v>
+        <v>1883868026.022619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1435127670981747</v>
+        <v>0.1449969052123309</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03750215202584633</v>
+        <v>0.02991643356733269</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2941887865.581448</v>
+        <v>4196471409.392972</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1019133562714269</v>
+        <v>0.09750801544190225</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03213624973194251</v>
+        <v>0.04012524737125808</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1877795267.876247</v>
+        <v>2944022489.084969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2009725514162768</v>
+        <v>0.1555082259220482</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02168636718078124</v>
+        <v>0.02452669047734258</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1444063825.616456</v>
+        <v>1621021570.111353</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08363507520029721</v>
+        <v>0.08497049469371114</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03162017833682147</v>
+        <v>0.0272476134004839</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2046100126.863736</v>
+        <v>1642523474.387011</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1222326872190266</v>
+        <v>0.1261381503287116</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04159058543248412</v>
+        <v>0.05253025400898939</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4932333465.276049</v>
+        <v>4508853579.835006</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1213014842453792</v>
+        <v>0.1089994337224302</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04197646956614498</v>
+        <v>0.04164185497887626</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4424954399.456222</v>
+        <v>4509383812.463634</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1789383169185472</v>
+        <v>0.1663677107454923</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04029522554927658</v>
+        <v>0.05864326482663364</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4149054794.691628</v>
+        <v>4065335596.46153</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07649866231931912</v>
+        <v>0.1031260059923842</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0276820130453336</v>
+        <v>0.03738593060447584</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1724275896.613622</v>
+        <v>1361389835.478111</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1885883096282119</v>
+        <v>0.1925176534484059</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03887831671271912</v>
+        <v>0.02997720559528257</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3530248205.990299</v>
+        <v>3218991308.054216</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1468296913942044</v>
+        <v>0.140029424889055</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04150696674500943</v>
+        <v>0.04293729901270425</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>958752416.0157118</v>
+        <v>1505643333.71624</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1566873581260578</v>
+        <v>0.1723137845357766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03965489146507968</v>
+        <v>0.04403136566191345</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4634855357.505403</v>
+        <v>4307837978.525393</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1093713827879586</v>
+        <v>0.09612693808586811</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04679145836703338</v>
+        <v>0.05522894290107262</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3215109719.371679</v>
+        <v>2967645119.020685</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1437421279557583</v>
+        <v>0.2033253808910283</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02970233065612007</v>
+        <v>0.03358067707206099</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4678213946.826921</v>
+        <v>3106794658.053672</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1324391358680664</v>
+        <v>0.1390267280545512</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04483086805995723</v>
+        <v>0.051107734769752</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4711742863.38129</v>
+        <v>3857366223.434862</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1755858612925636</v>
+        <v>0.2175401152209553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02536164065958394</v>
+        <v>0.02766490071622486</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1698839362.496048</v>
+        <v>1635263531.827417</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1408395539513342</v>
+        <v>0.1237215643924851</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04797266270675635</v>
+        <v>0.05613982276430522</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3429813654.978303</v>
+        <v>4089584599.509785</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1181967405494066</v>
+        <v>0.131939164142354</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02232648191025787</v>
+        <v>0.02182502208847232</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1449416491.968337</v>
+        <v>1395489122.655113</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1237539461358834</v>
+        <v>0.1860537134248359</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02664435779303634</v>
+        <v>0.03948416295536036</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3549232194.20337</v>
+        <v>4295024867.159677</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08058746866256303</v>
+        <v>0.1018347087933189</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04452278343149116</v>
+        <v>0.04591259734608629</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2454181040.39842</v>
+        <v>2864757429.882999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1369079186372116</v>
+        <v>0.1728007294328961</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03060161827949395</v>
+        <v>0.03021594688570171</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2480571814.701283</v>
+        <v>2836527971.100729</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1714608655138299</v>
+        <v>0.1424980579341814</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03107175219121329</v>
+        <v>0.02216146216896883</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1368791445.987285</v>
+        <v>1954802846.172901</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1243339943635337</v>
+        <v>0.1286172850642303</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04711547120525979</v>
+        <v>0.03872297796918663</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4203693852.049346</v>
+        <v>5600003898.355242</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09407313702516323</v>
+        <v>0.09836505333877327</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03484325357671216</v>
+        <v>0.03083797691713256</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5067920728.55182</v>
+        <v>4231867022.88972</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1904755789821622</v>
+        <v>0.1744873655791775</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02579272578654477</v>
+        <v>0.03243494844521297</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5935086388.619443</v>
+        <v>5897539848.962697</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1493270456926318</v>
+        <v>0.1448877548609356</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02907770641745311</v>
+        <v>0.02636198843128341</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4218896003.566612</v>
+        <v>5162486541.76875</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1270842068313497</v>
+        <v>0.1114927657833833</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0387065926348712</v>
+        <v>0.03839701841409252</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3422936444.388278</v>
+        <v>3449430392.238721</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07492401072663292</v>
+        <v>0.09039091533444898</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04837900944689539</v>
+        <v>0.03428275539576114</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6057460774.959476</v>
+        <v>5632596152.536361</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221481617988853</v>
+        <v>0.09980718861770657</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04237321427388215</v>
+        <v>0.04840936590447142</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1700983740.062735</v>
+        <v>1632790636.704</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1606541483411522</v>
+        <v>0.1769157656513654</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0519127582927227</v>
+        <v>0.05069330855032645</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2993973879.223871</v>
+        <v>2520600957.963745</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07195245290935692</v>
+        <v>0.08734887061233565</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0363283124344544</v>
+        <v>0.04316593622123772</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4775552457.438628</v>
+        <v>5418258859.293571</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272125293713404</v>
+        <v>0.1360808110629664</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02800367429256373</v>
+        <v>0.02093363823389529</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2223002929.822787</v>
+        <v>1887653299.26323</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1038895347141997</v>
+        <v>0.06759280319189688</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04559482133013404</v>
+        <v>0.04407417948614774</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2877287088.225631</v>
+        <v>3422381480.379957</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07859574878796309</v>
+        <v>0.07167128758973632</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04188841382249774</v>
+        <v>0.0473346882172359</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3823773656.384471</v>
+        <v>2547306556.314831</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1248437930265942</v>
+        <v>0.1440607550157201</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02610559216660453</v>
+        <v>0.03187225329578633</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1567838379.502806</v>
+        <v>2332256596.869806</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1512152807132036</v>
+        <v>0.1279875135185627</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03799583746377506</v>
+        <v>0.03675715805620985</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4304457127.164412</v>
+        <v>4962696659.116511</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1220100797468209</v>
+        <v>0.08065656970787526</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02872657254981213</v>
+        <v>0.02940768154528362</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1905854801.528043</v>
+        <v>1547979597.376743</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1589495375949424</v>
+        <v>0.1362040916919371</v>
       </c>
       <c r="G77" t="n">
-        <v>0.021295534604769</v>
+        <v>0.01991318941063795</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4125500411.435718</v>
+        <v>3530149082.209281</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09668778810316285</v>
+        <v>0.1351268568551975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03887770438147223</v>
+        <v>0.04741322074014405</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1343147704.827574</v>
+        <v>1695214883.782676</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1490559303592006</v>
+        <v>0.1678468006077045</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02749238965655055</v>
+        <v>0.03444266044794122</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3403391606.771775</v>
+        <v>5186308254.619192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09703259122061091</v>
+        <v>0.1109877426900347</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02481528989530899</v>
+        <v>0.02606478412565468</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3737622337.081358</v>
+        <v>3566861928.411674</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1188895447588759</v>
+        <v>0.1351685956484472</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0230670202854464</v>
+        <v>0.02410010354072211</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5165957990.664377</v>
+        <v>3718319265.049208</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1905973373419247</v>
+        <v>0.1842616934208122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02488588270669005</v>
+        <v>0.0285248270885024</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1800543681.584501</v>
+        <v>2100116450.078443</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1396390550269062</v>
+        <v>0.1485638829498714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03990609145803514</v>
+        <v>0.0372412004047286</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2411197954.439774</v>
+        <v>1938669301.772802</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1109668943175325</v>
+        <v>0.1123561250233927</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05183785210107813</v>
+        <v>0.05139502709104697</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2403980776.874205</v>
+        <v>2760584498.505533</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11810589922661</v>
+        <v>0.1640345925913011</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05077096753908751</v>
+        <v>0.05207218016348386</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2460633099.347268</v>
+        <v>2738216155.049248</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1417710237475732</v>
+        <v>0.1086492907056947</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01716913252640304</v>
+        <v>0.01965070637912771</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212027547.581888</v>
+        <v>1283053470.116688</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1321821317274295</v>
+        <v>0.1207474843121926</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03706606155822321</v>
+        <v>0.03286708361106919</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2249228342.985466</v>
+        <v>2702454616.66264</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1509477339770227</v>
+        <v>0.1156217035131595</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02773966982518898</v>
+        <v>0.03340187568053664</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2582596448.00208</v>
+        <v>3171979907.251144</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09929941618518585</v>
+        <v>0.1222088415021806</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02756804756038814</v>
+        <v>0.03281068064138697</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1537457291.77285</v>
+        <v>1829306022.405371</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040147878574094</v>
+        <v>0.09509839162729913</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04467458755169841</v>
+        <v>0.04342502939228528</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1443285230.938537</v>
+        <v>1289238752.780321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1668427036424466</v>
+        <v>0.1861550694449543</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05845678017248656</v>
+        <v>0.04702831501916176</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2319312235.194724</v>
+        <v>2424649113.811666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08503314788768689</v>
+        <v>0.09213101464339825</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03884481051628972</v>
+        <v>0.04532208051121761</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3669621311.147555</v>
+        <v>3785314950.144588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1053860722610277</v>
+        <v>0.1006863784621225</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04467184528475412</v>
+        <v>0.05070402768503543</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2220303038.821102</v>
+        <v>1836489371.617751</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238476832911244</v>
+        <v>0.1558039458916166</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03798324621402786</v>
+        <v>0.030934386641257</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2226793603.210316</v>
+        <v>2845595206.479164</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08739614226266738</v>
+        <v>0.1113003402279649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04734610431921242</v>
+        <v>0.03927609558497598</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1461780242.664008</v>
+        <v>1770712189.667594</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1373101407234801</v>
+        <v>0.1228333812424368</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03301080732401959</v>
+        <v>0.03829660804000071</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4099448059.287648</v>
+        <v>4263096719.677553</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1071208321803427</v>
+        <v>0.1689923479571065</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01990268133165121</v>
+        <v>0.02467899422390482</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3569585754.80942</v>
+        <v>3028810223.225334</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1035596390601951</v>
+        <v>0.08726042805616395</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03262806358094807</v>
+        <v>0.02934982124456231</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3409005415.8425</v>
+        <v>2895553498.286695</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1189981434019981</v>
+        <v>0.1473045963953643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02947805969872599</v>
+        <v>0.02721342833951265</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3510871531.9865</v>
+        <v>4299902612.941403</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1476626530321406</v>
+        <v>0.1346658531017204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01769788283406679</v>
+        <v>0.02757931564451442</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3204084776.846592</v>
+        <v>2475812242.752361</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1584285314830076</v>
+        <v>0.1812407455487239</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03854946723268161</v>
+        <v>0.05226142751828028</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1829318224.583186</v>
+        <v>2013834320.451332</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08655690391749689</v>
+        <v>0.08269972439827898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03022346613639245</v>
+        <v>0.02980850601538576</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2599338493.558795</v>
+        <v>2544746118.316978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1184151971853593</v>
+        <v>0.1561945220233113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03217949403376556</v>
+        <v>0.04115473805986853</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4222444780.157374</v>
+        <v>4130133444.338164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1421513935898452</v>
+        <v>0.1108285588054814</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03483489216512718</v>
+        <v>0.03772260997730179</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0438031381457</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3745126850.389365</v>
+        <v>3835886905.729679</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1062936182748665</v>
+        <v>0.0774545041399536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04653150189313948</v>
+        <v>0.03819335124073203</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1910391612.790668</v>
+        <v>2689695777.978555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083948845478392</v>
+        <v>0.1120354897568059</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04074289253544823</v>
+        <v>0.04389272076685152</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2226795117.949476</v>
+        <v>2346965943.794643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09605104410116745</v>
+        <v>0.06421207046064355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03340722174159398</v>
+        <v>0.03766361785453176</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2940560300.752039</v>
+        <v>3857705573.511364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1407632263271415</v>
+        <v>0.1897610889638498</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0333699650156597</v>
+        <v>0.03225577148092974</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1744765720.465095</v>
+        <v>2272615875.969073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1201045172566904</v>
+        <v>0.1643948567751911</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03255757082397745</v>
+        <v>0.02283072462183863</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5435702527.427558</v>
+        <v>5951840043.441769</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1974287190480395</v>
+        <v>0.1621111529054976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0373158064911153</v>
+        <v>0.03911616510553138</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1698256829956</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2719346257.409906</v>
+        <v>3881740663.020381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1868537331827449</v>
+        <v>0.1819441921591142</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04881580416012719</v>
+        <v>0.0386884656226378</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2229958665.835317</v>
+        <v>2817242789.83337</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1223158955148227</v>
+        <v>0.1417733183191127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04371717823061746</v>
+        <v>0.04162855193345852</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3831940917.452124</v>
+        <v>3957997548.291909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09776902652440948</v>
+        <v>0.09569543933478733</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02711641922028624</v>
+        <v>0.02518313637456463</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3105438372.955523</v>
+        <v>3621738971.011791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1853000752365198</v>
+        <v>0.1784432842168713</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03255228319013251</v>
+        <v>0.04369260706051116</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1270024771.396976</v>
+        <v>1355898816.335692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06641416475928739</v>
+        <v>0.1005054652164107</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03963943290254088</v>
+        <v>0.04846052325999246</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2180068716.094699</v>
+        <v>2122616760.146501</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07432592054540398</v>
+        <v>0.1027302967893717</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03668865138668708</v>
+        <v>0.04579248630580697</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3707107955.012259</v>
+        <v>3576232191.11384</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1179299959970406</v>
+        <v>0.1334235695508721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04169860504332961</v>
+        <v>0.03831606083664139</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>167.7076807276038</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4020355707.493726</v>
+        <v>2932983418.308842</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1826789487550802</v>
+        <v>0.1358201022962137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03216234374873778</v>
+        <v>0.02283581394635472</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1130320699.708984</v>
+        <v>1051808034.258874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1251214085700706</v>
+        <v>0.1194880463672783</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02042715211248981</v>
+        <v>0.01755561666618577</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1897960896.341043</v>
+        <v>2425405534.021223</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1504225105637393</v>
+        <v>0.1164379072156614</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02733728820082945</v>
+        <v>0.02200839082114014</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2735530809.38982</v>
+        <v>1722086702.139997</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07557580205117867</v>
+        <v>0.07166117957469044</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04163590190936898</v>
+        <v>0.03988789066936797</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2936315630.947586</v>
+        <v>3415981685.048008</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09438340679375305</v>
+        <v>0.1277049012156043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05601119054789177</v>
+        <v>0.05400728715912831</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>145.3690764183908</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1159721206.019533</v>
+        <v>1456699402.752365</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1275206464369967</v>
+        <v>0.1392616919133697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04243340070214804</v>
+        <v>0.03661677825048328</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2932530522.562705</v>
+        <v>3811880605.087122</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1213510396066278</v>
+        <v>0.1403330979892415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03214280062174679</v>
+        <v>0.02884628728141732</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>961642435.382321</v>
+        <v>1298717194.847899</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08682029360876886</v>
+        <v>0.07777242286761207</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02934524931690859</v>
+        <v>0.02369444564044206</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1327743340.440227</v>
+        <v>1155259588.806191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1015442814381097</v>
+        <v>0.1072736437149796</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0329423892268518</v>
+        <v>0.02593976881474847</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4713228417.827894</v>
+        <v>4047610145.647558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1121123381617791</v>
+        <v>0.1127979148670868</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02444504253483332</v>
+        <v>0.0230841141103528</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2491706483.633133</v>
+        <v>3794641597.772397</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1035309051508388</v>
+        <v>0.0977462732352842</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04644864533936769</v>
+        <v>0.03135191407728818</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4128745539.675782</v>
+        <v>3936253411.061348</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1338707383921404</v>
+        <v>0.1062713177490404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03286219799471627</v>
+        <v>0.04329833969679116</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0185238548534</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1628221374.158365</v>
+        <v>2044231029.825324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09209391650595268</v>
+        <v>0.1401363531334993</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02428867128916906</v>
+        <v>0.03247325473388177</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1083107530.386868</v>
+        <v>1297484952.315691</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07595540183106031</v>
+        <v>0.1120730641388809</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04689264622637626</v>
+        <v>0.0351360694843848</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410646432.269161</v>
+        <v>1686940987.904153</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07839393247242078</v>
+        <v>0.1077569174273482</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03061409649865389</v>
+        <v>0.03132875753176739</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2133498436.750866</v>
+        <v>2075331752.09454</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1714828590042264</v>
+        <v>0.1652536629707047</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0410786193605364</v>
+        <v>0.04823300040842596</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1477346919.26399</v>
+        <v>1560827515.61569</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09362624113781785</v>
+        <v>0.1158516163732576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02606190301502528</v>
+        <v>0.02482015261433329</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>867377807.1029801</v>
+        <v>1297947654.727119</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09597132969289714</v>
+        <v>0.09338860151876664</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03531167632490288</v>
+        <v>0.03314885013606383</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2129148245.581695</v>
+        <v>2642434497.020051</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1278738315179657</v>
+        <v>0.1765495384129597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02812038736118534</v>
+        <v>0.01754792787260237</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1911376873.48544</v>
+        <v>2612915552.873802</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07314285744301965</v>
+        <v>0.07497905733751256</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04002807598225593</v>
+        <v>0.02608128136676492</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1411286974.840974</v>
+        <v>1674772737.266046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09514487816291822</v>
+        <v>0.09745008620879431</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02984858970875175</v>
+        <v>0.03880273030883438</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1597595204.576465</v>
+        <v>2220240664.177989</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1189682536925311</v>
+        <v>0.1881518884358991</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02220868327532772</v>
+        <v>0.02510757297019411</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1331544685.963968</v>
+        <v>1737882518.921548</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09949323702524594</v>
+        <v>0.1191527112815226</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04145751049623762</v>
+        <v>0.03685431601654993</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1883868026.022619</v>
+        <v>2326290767.193208</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1449969052123309</v>
+        <v>0.1511109857756773</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02991643356733269</v>
+        <v>0.03116195921945835</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4196471409.392972</v>
+        <v>3008015015.459835</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09750801544190225</v>
+        <v>0.1223823937437852</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04012524737125808</v>
+        <v>0.03104076459179716</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2944022489.084969</v>
+        <v>3022196545.737671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1555082259220482</v>
+        <v>0.1837720729047535</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02452669047734258</v>
+        <v>0.02310695892073463</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1621021570.111353</v>
+        <v>1524213398.167814</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08497049469371114</v>
+        <v>0.0643469088472563</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0272476134004839</v>
+        <v>0.03055377988727329</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642523474.387011</v>
+        <v>1921375403.50113</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1261381503287116</v>
+        <v>0.1638321680531361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05253025400898939</v>
+        <v>0.05459381384802679</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4508853579.835006</v>
+        <v>4854962277.738189</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1089994337224302</v>
+        <v>0.1536803631722941</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04164185497887626</v>
+        <v>0.06116111016173776</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.320489427754</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4509383812.463634</v>
+        <v>3287604026.042459</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1663677107454923</v>
+        <v>0.1926712385716187</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05864326482663364</v>
+        <v>0.04801521884076053</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4065335596.46153</v>
+        <v>4482791621.618782</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1031260059923842</v>
+        <v>0.07356756169555964</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03738593060447584</v>
+        <v>0.03520771537534927</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>210.5894462369298</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1361389835.478111</v>
+        <v>1476722841.330756</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1925176534484059</v>
+        <v>0.1793383491796624</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02997720559528257</v>
+        <v>0.03208182049170488</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3218991308.054216</v>
+        <v>3100096563.859405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.140029424889055</v>
+        <v>0.1654454732041828</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04293729901270425</v>
+        <v>0.04885599800332565</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>135.6626061138798</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1505643333.71624</v>
+        <v>1447097669.162987</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1723137845357766</v>
+        <v>0.1354094507381859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04403136566191345</v>
+        <v>0.04433321332265697</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4307837978.525393</v>
+        <v>4236843467.354371</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09612693808586811</v>
+        <v>0.1375345076469244</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05522894290107262</v>
+        <v>0.0562069497473705</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.6385653379075</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2967645119.020685</v>
+        <v>2575601802.810638</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2033253808910283</v>
+        <v>0.2018042610058031</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03358067707206099</v>
+        <v>0.03558843932610424</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3106794658.053672</v>
+        <v>4157032621.904378</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1390267280545512</v>
+        <v>0.1338191064065399</v>
       </c>
       <c r="G54" t="n">
-        <v>0.051107734769752</v>
+        <v>0.03855800568543146</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.4670927370931</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3857366223.434862</v>
+        <v>4899555051.464749</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2175401152209553</v>
+        <v>0.2097027988650516</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02766490071622486</v>
+        <v>0.03223968483740391</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.7513225743583</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1635263531.827417</v>
+        <v>1537906154.860243</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1237215643924851</v>
+        <v>0.164218938286484</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05613982276430522</v>
+        <v>0.0573087863266394</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4089584599.509785</v>
+        <v>4179892414.126743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.131939164142354</v>
+        <v>0.1372032305883298</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02182502208847232</v>
+        <v>0.02146600797724145</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1395489122.655113</v>
+        <v>1258264656.437466</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1860537134248359</v>
+        <v>0.156916715977854</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03948416295536036</v>
+        <v>0.03055080614816891</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4295024867.159677</v>
+        <v>5071392215.2236</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1018347087933189</v>
+        <v>0.1237982248042146</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04591259734608629</v>
+        <v>0.04745844402715133</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864757429.882999</v>
+        <v>2357743435.085529</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1728007294328961</v>
+        <v>0.1766528030187019</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03021594688570171</v>
+        <v>0.02918934305099078</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2836527971.100729</v>
+        <v>2821188108.984269</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1424980579341814</v>
+        <v>0.1200556902840179</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02216146216896883</v>
+        <v>0.02282121767030582</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1954802846.172901</v>
+        <v>1768460259.693603</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1286172850642303</v>
+        <v>0.123958879305343</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03872297796918663</v>
+        <v>0.03840605603829852</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5600003898.355242</v>
+        <v>5164951764.203586</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09836505333877327</v>
+        <v>0.08480592618338523</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03083797691713256</v>
+        <v>0.03562954210379929</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4231867022.88972</v>
+        <v>4559139614.777065</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1744873655791775</v>
+        <v>0.1168232486085798</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03243494844521297</v>
+        <v>0.03121697675721857</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5897539848.962697</v>
+        <v>5698743600.401889</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1448877548609356</v>
+        <v>0.134493792663527</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02636198843128341</v>
+        <v>0.03207528489782073</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.6359995449353</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5162486541.76875</v>
+        <v>4107348609.03764</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1114927657833833</v>
+        <v>0.1489513945856494</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03839701841409252</v>
+        <v>0.03558133978688193</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3449430392.238721</v>
+        <v>3088613379.949989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09039091533444898</v>
+        <v>0.07336542535243974</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428275539576114</v>
+        <v>0.05019299212118155</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5632596152.536361</v>
+        <v>5996217843.90829</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09980718861770657</v>
+        <v>0.1604084973861451</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04840936590447142</v>
+        <v>0.04097571933865368</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1632790636.704</v>
+        <v>1884513835.34127</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1769157656513654</v>
+        <v>0.1674976776489323</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05069330855032645</v>
+        <v>0.04603248495844802</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2520600957.963745</v>
+        <v>3012103825.412062</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08734887061233565</v>
+        <v>0.09648820146199061</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04316593622123772</v>
+        <v>0.0429252917179903</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5418258859.293571</v>
+        <v>3529913553.97528</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1360808110629664</v>
+        <v>0.1349390515692</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02093363823389529</v>
+        <v>0.02799570152021868</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>178.8025687845115</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1887653299.26323</v>
+        <v>1502880057.944177</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06759280319189688</v>
+        <v>0.1046565459192298</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04407417948614774</v>
+        <v>0.03403619980122904</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3422381480.379957</v>
+        <v>2405324681.996656</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07167128758973632</v>
+        <v>0.08229503141903087</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0473346882172359</v>
+        <v>0.0359809242421184</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547306556.314831</v>
+        <v>3885550040.89071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1440607550157201</v>
+        <v>0.1696403704538006</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03187225329578633</v>
+        <v>0.02416153278482268</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" t="n">
+        <v>213.102316148281</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2332256596.869806</v>
+        <v>2485182992.46416</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1279875135185627</v>
+        <v>0.1134648910943944</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03675715805620985</v>
+        <v>0.03568805135472331</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4962696659.116511</v>
+        <v>4202534827.953475</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08065656970787526</v>
+        <v>0.1076895205558886</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02940768154528362</v>
+        <v>0.03391901760741328</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>9</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1547979597.376743</v>
+        <v>1555662286.02773</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1362040916919371</v>
+        <v>0.1449348344678172</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01991318941063795</v>
+        <v>0.03096914370158827</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3530149082.209281</v>
+        <v>3368255077.119075</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1351268568551975</v>
+        <v>0.112886882255845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04741322074014405</v>
+        <v>0.03873728837710913</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1695214883.782676</v>
+        <v>1219484306.043274</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1678468006077045</v>
+        <v>0.1331765242308791</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03444266044794122</v>
+        <v>0.03394231293122434</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5186308254.619192</v>
+        <v>5206955744.554877</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1109877426900347</v>
+        <v>0.106634978879141</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02606478412565468</v>
+        <v>0.03228039271381089</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.766488974897</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3566861928.411674</v>
+        <v>3187147656.648292</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1351685956484472</v>
+        <v>0.09386493043842276</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02410010354072211</v>
+        <v>0.02095792415088617</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.0838789570218</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3718319265.049208</v>
+        <v>4428663544.701386</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1842616934208122</v>
+        <v>0.1399897675887495</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0285248270885024</v>
+        <v>0.01798709534887127</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2100116450.078443</v>
+        <v>1513385944.463068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1485638829498714</v>
+        <v>0.1444471015406481</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0372412004047286</v>
+        <v>0.0288964730616908</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1938669301.772802</v>
+        <v>2101524514.447619</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123561250233927</v>
+        <v>0.09653434665846464</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05139502709104697</v>
+        <v>0.03689104857438784</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2760584498.505533</v>
+        <v>2339058322.478726</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1640345925913011</v>
+        <v>0.1773046147087844</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05207218016348386</v>
+        <v>0.04856529975554388</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>81.85221171704127</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2738216155.049248</v>
+        <v>1954717915.829094</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1086492907056947</v>
+        <v>0.1511819254368366</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01965070637912771</v>
+        <v>0.02641135738212395</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1283053470.116688</v>
+        <v>998370535.0583087</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1207474843121926</v>
+        <v>0.1157300539045751</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03286708361106919</v>
+        <v>0.03092288711238082</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2702454616.66264</v>
+        <v>2354186589.032929</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156217035131595</v>
+        <v>0.1410223011157923</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03340187568053664</v>
+        <v>0.03766379623381339</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3580,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3171979907.251144</v>
+        <v>3170333200.01111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1222088415021806</v>
+        <v>0.1242373507676688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03281068064138697</v>
+        <v>0.0386623480301508</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>141.7053966323989</v>
       </c>
     </row>
     <row r="90">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1829306022.405371</v>
+        <v>1342538188.979044</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09509839162729913</v>
+        <v>0.08899141729484951</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04342502939228528</v>
+        <v>0.04113893153168927</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1289238752.780321</v>
+        <v>1305760464.860563</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1861550694449543</v>
+        <v>0.1783328156615543</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04702831501916176</v>
+        <v>0.05506497259572468</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2424649113.811666</v>
+        <v>1830351808.382422</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09213101464339825</v>
+        <v>0.07818239484230105</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04532208051121761</v>
+        <v>0.03979322497738593</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3785314950.144588</v>
+        <v>4633373441.178142</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1006863784621225</v>
+        <v>0.1019586841053083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05070402768503543</v>
+        <v>0.04276629232954525</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1836489371.617751</v>
+        <v>1947219530.132298</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1558039458916166</v>
+        <v>0.1056171912724111</v>
       </c>
       <c r="G94" t="n">
-        <v>0.030934386641257</v>
+        <v>0.03786048453095823</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2845595206.479164</v>
+        <v>3214180421.377973</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1113003402279649</v>
+        <v>0.113547786424914</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03927609558497598</v>
+        <v>0.03825436747057553</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1770712189.667594</v>
+        <v>1736647006.021915</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1228333812424368</v>
+        <v>0.1031877698701284</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03829660804000071</v>
+        <v>0.03112885643158696</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4263096719.677553</v>
+        <v>3811019654.498246</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1689923479571065</v>
+        <v>0.142116518251888</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02467899422390482</v>
+        <v>0.02130666086843051</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>201.5845449777322</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3028810223.225334</v>
+        <v>3744914302.292101</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08726042805616395</v>
+        <v>0.1107711712788584</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02934982124456231</v>
+        <v>0.02799735636169198</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>173.0098665469515</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2895553498.286695</v>
+        <v>2316022729.217944</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473045963953643</v>
+        <v>0.1352651659302969</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02721342833951265</v>
+        <v>0.02262093388195532</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4299902612.941403</v>
+        <v>4090912414.708493</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1346658531017204</v>
+        <v>0.1364444901420359</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02757931564451442</v>
+        <v>0.01969918570331146</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2475812242.752361</v>
+        <v>2301092580.260758</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1812407455487239</v>
+        <v>0.1357546342188216</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05226142751828028</v>
+        <v>0.05194790566214807</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
